--- a/LABEL_for_KATO.xlsx
+++ b/LABEL_for_KATO.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gon\Documents\模型\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0821C58-EA7B-463B-9EF2-4E98C769E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7454F6-89B3-436E-B37F-A058F815BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -601,56 +596,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23DBE1-94F9-47A1-BA14-7428F65A3F0C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1134,7 +1129,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1149,6 +1144,7 @@
     <hyperlink ref="B26" r:id="rId1" xr:uid="{99D34446-4F08-4F98-9FC4-C2C5DA84C7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1196,10 +1192,10 @@
         <f>IF(ISBLANK($D3),"","あ")</f>
         <v>あ</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="str">
@@ -1251,7 +1247,7 @@
         <f>IF(ISBLANK($D6),"","あ")</f>
         <v/>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="str">
         <f>IF(ISBLANK($D6),"","あ")</f>
@@ -1302,8 +1298,8 @@
         <f>IF(ISBLANK($D9),"","あ")</f>
         <v/>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3" t="str">
         <f>IF(ISBLANK($D9),"","あ")</f>
         <v/>
@@ -1353,7 +1349,7 @@
         <f>IF(ISBLANK($D12),"","あ")</f>
         <v/>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="str">
         <f>IF(ISBLANK($D12),"","あ")</f>
@@ -1404,8 +1400,8 @@
         <f>IF(ISBLANK($D15),"","あ")</f>
         <v/>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="3" t="str">
         <f>IF(ISBLANK($D15),"","あ")</f>
         <v/>
@@ -1455,7 +1451,7 @@
         <f>IF(ISBLANK($D18),"","あ")</f>
         <v/>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="str">
         <f>IF(ISBLANK($D18),"","あ")</f>
@@ -1506,7 +1502,7 @@
         <f>IF(ISBLANK($D21),"","あ")</f>
         <v/>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="str">
         <f>IF(ISBLANK($D21),"","あ")</f>
@@ -1557,8 +1553,8 @@
         <f>IF(ISBLANK($D24),"","あ")</f>
         <v/>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="2" t="str">
         <f>IF(ISBLANK($D24),"","あ")</f>
         <v/>
@@ -1596,8 +1592,8 @@
         <f>IF(ISBLANK($D27),"","あ")</f>
         <v/>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="2" t="str">
         <f>IF(ISBLANK($D27),"","あ")</f>
         <v/>
@@ -1635,8 +1631,8 @@
         <f>IF(ISBLANK($D30),"","あ")</f>
         <v/>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="2" t="str">
         <f>IF(ISBLANK($D30),"","あ")</f>
         <v/>
@@ -1695,28 +1691,28 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -1726,16 +1722,16 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -1745,16 +1741,16 @@
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -1764,16 +1760,16 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
@@ -1783,12 +1779,12 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1858,10 +1854,10 @@
         <f>IF(ISBLANK($D3),"","あ")</f>
         <v>あ</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="str">
@@ -1913,7 +1909,7 @@
         <f>IF(ISBLANK($D6),"","あ")</f>
         <v/>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="str">
         <f>IF(ISBLANK($D6),"","あ")</f>
@@ -1964,8 +1960,8 @@
         <f>IF(ISBLANK($D9),"","あ")</f>
         <v/>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3" t="str">
         <f>IF(ISBLANK($D9),"","あ")</f>
         <v/>
@@ -2015,7 +2011,7 @@
         <f>IF(ISBLANK($D12),"","あ")</f>
         <v/>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="str">
         <f>IF(ISBLANK($D12),"","あ")</f>
@@ -2066,8 +2062,8 @@
         <f>IF(ISBLANK($D15),"","あ")</f>
         <v/>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="3" t="str">
         <f>IF(ISBLANK($D15),"","あ")</f>
         <v/>
@@ -2117,7 +2113,7 @@
         <f>IF(ISBLANK($D18),"","あ")</f>
         <v/>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="str">
         <f>IF(ISBLANK($D18),"","あ")</f>
@@ -2168,7 +2164,7 @@
         <f>IF(ISBLANK($D21),"","あ")</f>
         <v/>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="str">
         <f>IF(ISBLANK($D21),"","あ")</f>
@@ -2219,8 +2215,8 @@
         <f>IF(ISBLANK($D24),"","あ")</f>
         <v/>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="2" t="str">
         <f>IF(ISBLANK($D24),"","あ")</f>
         <v/>
@@ -2258,8 +2254,8 @@
         <f>IF(ISBLANK($D27),"","あ")</f>
         <v/>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="2" t="str">
         <f>IF(ISBLANK($D27),"","あ")</f>
         <v/>
@@ -2297,8 +2293,8 @@
         <f>IF(ISBLANK($D30),"","あ")</f>
         <v/>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="2" t="str">
         <f>IF(ISBLANK($D30),"","あ")</f>
         <v/>
@@ -2342,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3E40D7-D64C-4D01-A434-60D243679C34}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="232" zoomScaleNormal="100" zoomScalePageLayoutView="232" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView view="pageLayout" zoomScale="232" zoomScaleNormal="100" zoomScalePageLayoutView="232" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2357,104 +2353,104 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="22"/>
       <c r="I2">
         <f>56*0.82</f>
         <v>45.919999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/LABEL_for_KATO.xlsx
+++ b/LABEL_for_KATO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7454F6-89B3-436E-B37F-A058F815BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDAEFA-FCAE-4C3E-987C-1FCACDA69F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
   </bookViews>
@@ -386,11 +386,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"HGPｺﾞｼｯｸE"がないときは、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10-12R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"HGPｺﾞｼｯｸE"がないときは、" MS Pゴシック"も悪くありません（太字の方が似ていると思います）。</t>
+    <rPh sb="30" eb="31">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オモ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1055,7 +1070,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1692,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>

--- a/LABEL_for_KATO.xlsx
+++ b/LABEL_for_KATO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3F3476-B535-476D-ABCA-F57F4D9D6F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD5B6D-6AE0-4994-9D52-D50D92556041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="3" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -105,19 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>背ラベルはコクヨのVHSテープ用ラベルテープ"タイｰ6250-W"を前提としています。</t>
-    <rPh sb="0" eb="1">
-      <t>セ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ゼンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表ラベルはA4フリーラベルを想定しています。</t>
     <rPh sb="0" eb="1">
       <t>オモテ</t>
@@ -495,6 +482,19 @@
   </si>
   <si>
     <t>ver.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背ラベルはコクヨのVHSテープ用ラベルシール"タイｰ6250-W"を前提としています。</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゼンテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -688,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,12 +743,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -761,8 +755,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1168,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23DBE1-94F9-47A1-BA14-7428F65A3F0C}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1179,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -1189,112 +1186,112 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1326,28 +1323,28 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>55</v>
+      <c r="C1" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="I2">
         <f>56*0.82</f>
         <v>45.919999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="7"/>
@@ -1361,12 +1358,12 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
@@ -1380,12 +1377,12 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
@@ -1399,12 +1396,12 @@
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
@@ -1418,12 +1415,12 @@
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1461,117 +1458,117 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0214BFA9-393D-4AD6-B647-378807D71EDB}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="242" zoomScaleNormal="100" zoomScalePageLayoutView="242" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="242" zoomScaleNormal="100" zoomScalePageLayoutView="242" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
@@ -2124,24 +2121,24 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="7"/>
@@ -2155,12 +2152,12 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
@@ -2174,12 +2171,12 @@
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
@@ -2193,12 +2190,12 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
@@ -2212,12 +2209,12 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2786,28 +2783,28 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="22"/>
       <c r="I2">
         <f>56*0.82</f>
         <v>45.919999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="7"/>
@@ -2821,12 +2818,12 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
@@ -2840,12 +2837,12 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
@@ -2859,12 +2856,12 @@
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
@@ -2878,12 +2875,12 @@
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2956,8 +2953,8 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>54</v>
+      <c r="D3" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>IF(ISBLANK($D3),"","あ")</f>
@@ -3452,24 +3449,24 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>55</v>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="7"/>
@@ -3483,12 +3480,12 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
@@ -3502,12 +3499,12 @@
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
@@ -3521,12 +3518,12 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
@@ -3540,12 +3537,12 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3619,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>IF(ISBLANK($D3),"","あ")</f>

--- a/LABEL_for_KATO.xlsx
+++ b/LABEL_for_KATO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD5B6D-6AE0-4994-9D52-D50D92556041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FAD86B-DC40-411C-9ED9-ACE5076D8AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" activeTab="3" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="836" xr2:uid="{42763F51-135F-4F52-8E2B-C84F735596EB}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（すべてのモフィケーションも同じルールに従っている限り）、個人的および/または商用目的で使用できることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（Windowsならば"LeagueGothic-Regular-KATO.ttf"ファイルを"c:\Windows\Fonts"にコピーしてインストールする）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,9 +408,6 @@
     <t>It is intended to be like a genuine KATO label, but it is not a complete label, so it is just a rough impression.</t>
   </si>
   <si>
-    <t>The back label is supposed to be "TAI-6250-W" label tape for VHS tape by Kokuyo.</t>
-  </si>
-  <si>
     <t>The front label is assumed to be an A4 free label.</t>
   </si>
   <si>
@@ -494,6 +487,17 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The back label is supposed to be "TAI-6250-W" label seal for VHS tape by Kokuyo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（すべての改変も同じルールに従っている限り）、個人的および/または商用目的で使用できることができます。</t>
+    <rPh sb="5" eb="7">
+      <t>カイヘン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1165,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23DBE1-94F9-47A1-BA14-7428F65A3F0C}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1176,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -1191,7 +1195,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -1211,7 +1215,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -1226,7 +1230,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -1236,7 +1240,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -1271,7 +1275,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -1327,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1450,125 +1454,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DA1CF8-4BCB-4951-895D-614DC946E881}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2106,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0214BFA9-393D-4AD6-B647-378807D71EDB}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="242" zoomScaleNormal="100" zoomScalePageLayoutView="242" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView view="pageLayout" zoomScale="242" zoomScaleNormal="100" zoomScalePageLayoutView="242" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2122,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>3</v>
@@ -2954,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>IF(ISBLANK($D3),"","あ")</f>
@@ -3450,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -3616,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>IF(ISBLANK($D3),"","あ")</f>
